--- a/biology/Zoologie/Garthia_gaudichaudii/Garthia_gaudichaudii.xlsx
+++ b/biology/Zoologie/Garthia_gaudichaudii/Garthia_gaudichaudii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Garthia gaudichaudii est une espèce de geckos de la famille des Phyllodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garthia gaudichaudii est une espèce de geckos de la famille des Phyllodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Bolivie ;
 au Chili ;
 en Uruguay ;
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 avril 2014) :
 Garthia gaudichaudii dorbignii (Duméril &amp; Bibron, 1836)
 Garthia gaudichaudii gaudichaudii (Duméril &amp; Bibron, 1836)
 Garthia gaudichaudii klugei Donoso-Barros, 1970</t>
@@ -578,9 +594,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Gaudichaud-Beaupré (1789–1854)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Gaudichaud-Beaupré (1789–1854).
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Donoso-Barros, 1970 : Cátalogo herpetólogica chileno. Bulletin du Muséum national d'histoire naturelle de Santiago, vol. 31, p. 49-124.
 Duméril &amp; Bibron, 1836 : Erpetologie Générale ou Histoire Naturelle Complete des Reptiles. Librairie Encyclopédique Roret, Paris, vol. 3, p. 1-517 (texte intégral).</t>
